--- a/xlsx/country_comparison/support_likert_all_share.xlsx
+++ b/xlsx/country_comparison/support_likert_all_share.xlsx
@@ -44,8 +44,8 @@
     <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
   </si>
   <si>
-    <t xml:space="preserve">Preferred share of global wealth
-tax for low-income countries: ≥ 30%*</t>
+    <t xml:space="preserve">Preferred share of global wealth tax
+for low-income countries: 30% or more*</t>
   </si>
   <si>
     <t xml:space="preserve">[Country]'s foreign aid should be increased*</t>
